--- a/SimulationStudyData/Model3/Dataset17_zsim_Run2.xlsx
+++ b/SimulationStudyData/Model3/Dataset17_zsim_Run2.xlsx
@@ -353,7 +353,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -363,22 +363,22 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -388,7 +388,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -398,7 +398,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -418,7 +418,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -428,27 +428,27 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -463,12 +463,12 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -478,7 +478,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -488,7 +488,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -498,7 +498,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
@@ -508,7 +508,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
@@ -533,7 +533,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -558,22 +558,22 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
@@ -588,7 +588,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -598,12 +598,12 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
@@ -613,12 +613,12 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -633,22 +633,22 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
@@ -668,22 +668,22 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -698,22 +698,22 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -733,7 +733,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79">
@@ -748,7 +748,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -773,7 +773,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87">
@@ -793,7 +793,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
@@ -813,7 +813,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -838,7 +838,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100">
@@ -853,7 +853,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -868,17 +868,17 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108">
@@ -908,7 +908,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114">
@@ -938,12 +938,12 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -953,7 +953,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -1008,7 +1008,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134">
@@ -1023,7 +1023,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -1033,12 +1033,12 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -1073,7 +1073,7 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147">
@@ -1093,17 +1093,17 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153">
@@ -1118,7 +1118,7 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
@@ -1128,17 +1128,17 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160">
@@ -1158,12 +1158,12 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
@@ -1198,7 +1198,7 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172">
@@ -1228,7 +1228,7 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -1253,7 +1253,7 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183">
@@ -1268,7 +1268,7 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186">
@@ -1278,7 +1278,7 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188">
@@ -1288,22 +1288,22 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
@@ -1313,17 +1313,17 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
@@ -1348,7 +1348,7 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
